--- a/excel_kp/details.xlsx
+++ b/excel_kp/details.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>№</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Цена нал</t>
+  </si>
+  <si>
+    <t>Счет (1С)</t>
   </si>
 </sst>
 </file>
@@ -383,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -396,11 +399,12 @@
     <col min="3" max="3" width="28.42578125" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="38.140625" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -417,13 +421,16 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -431,6 +438,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
